--- a/Armlet_hw/ArmletBOM.xlsx
+++ b/Armlet_hw/ArmletBOM.xlsx
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1507,7 @@
         <v>48</v>
       </c>
       <c r="F18">
-        <v>38.200000000000003</v>
+        <v>28.9</v>
       </c>
       <c r="G18">
         <v>7</v>
@@ -2378,5 +2378,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>